--- a/ErlangBTable.xlsx
+++ b/ErlangBTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\WirelessProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD466C5A-A9DB-4FB6-B332-180645408605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6638B8-8284-4D51-91BA-DFFF17A9CA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>(N)</t>
-  </si>
-  <si>
-    <t>\\</t>
   </si>
 </sst>
 </file>
@@ -625,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R185"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W69" sqref="W69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4437,8 +4434,8 @@
       <c r="J76" s="5">
         <v>54.478442999999999</v>
       </c>
-      <c r="K76" s="22" t="s">
-        <v>1</v>
+      <c r="K76" s="22">
+        <v>56.6</v>
       </c>
       <c r="L76" s="5">
         <v>60.181199999999997</v>
@@ -9644,7 +9641,7 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K76" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K76" r:id="rId1" display="\\" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="0.75" header="0.25" footer="0.25"/>
